--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05916633333333333</v>
+        <v>1.814087666666667</v>
       </c>
       <c r="H2">
-        <v>0.177499</v>
+        <v>5.442263</v>
       </c>
       <c r="I2">
-        <v>0.005840587905374044</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="J2">
-        <v>0.005840587905374045</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.573052</v>
+        <v>0.3922183333333333</v>
       </c>
       <c r="N2">
-        <v>19.719156</v>
+        <v>1.176655</v>
       </c>
       <c r="O2">
-        <v>0.9563653689351861</v>
+        <v>0.06257714082953221</v>
       </c>
       <c r="P2">
-        <v>0.956365368935186</v>
+        <v>0.06257714082953222</v>
       </c>
       <c r="Q2">
-        <v>0.3889033856493333</v>
+        <v>0.7115184411405555</v>
       </c>
       <c r="R2">
-        <v>3.500130470843999</v>
+        <v>6.403665970264999</v>
       </c>
       <c r="S2">
-        <v>0.005585736006921434</v>
+        <v>0.007578487282522684</v>
       </c>
       <c r="T2">
-        <v>0.005585736006921434</v>
+        <v>0.007578487282522686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05916633333333333</v>
+        <v>1.814087666666667</v>
       </c>
       <c r="H3">
-        <v>0.177499</v>
+        <v>5.442263</v>
       </c>
       <c r="I3">
-        <v>0.005840587905374044</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="J3">
-        <v>0.005840587905374045</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.034619</v>
+        <v>5.787580333333334</v>
       </c>
       <c r="N3">
-        <v>0.103857</v>
+        <v>17.362741</v>
       </c>
       <c r="O3">
-        <v>0.005036992360195417</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="P3">
-        <v>0.005036992360195417</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="Q3">
-        <v>0.002048279293666666</v>
+        <v>10.49917810254255</v>
       </c>
       <c r="R3">
-        <v>0.018434513643</v>
+        <v>94.49260292288299</v>
       </c>
       <c r="S3">
-        <v>2.941899665841882E-05</v>
+        <v>0.1118282859956701</v>
       </c>
       <c r="T3">
-        <v>2.941899665841881E-05</v>
+        <v>0.1118282859956701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.814087666666667</v>
+      </c>
+      <c r="H4">
+        <v>5.442263</v>
+      </c>
+      <c r="I4">
+        <v>0.1211063206477811</v>
+      </c>
+      <c r="J4">
+        <v>0.1211063206477811</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.05916633333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.177499</v>
-      </c>
-      <c r="I4">
-        <v>0.005840587905374044</v>
-      </c>
-      <c r="J4">
-        <v>0.005840587905374045</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.2652796666666666</v>
+        <v>0.034619</v>
       </c>
       <c r="N4">
-        <v>0.795839</v>
+        <v>0.103857</v>
       </c>
       <c r="O4">
-        <v>0.03859763870461847</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="P4">
-        <v>0.03859763870461847</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="Q4">
-        <v>0.01569562518455555</v>
+        <v>0.06280190093233333</v>
       </c>
       <c r="R4">
-        <v>0.141260626661</v>
+        <v>0.565217108391</v>
       </c>
       <c r="S4">
-        <v>0.0002254329017941917</v>
+        <v>0.0006689122586492715</v>
       </c>
       <c r="T4">
-        <v>0.0002254329017941918</v>
+        <v>0.0006689122586492715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.748364666666667</v>
+        <v>1.814087666666667</v>
       </c>
       <c r="H5">
-        <v>17.245094</v>
+        <v>5.442263</v>
       </c>
       <c r="I5">
-        <v>0.567448196572592</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="J5">
-        <v>0.5674481965725922</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.573052</v>
+        <v>0.05333966666666667</v>
       </c>
       <c r="N5">
-        <v>19.719156</v>
+        <v>0.160019</v>
       </c>
       <c r="O5">
-        <v>0.9563653689351861</v>
+        <v>0.008510167804837369</v>
       </c>
       <c r="P5">
-        <v>0.956365368935186</v>
+        <v>0.008510167804837371</v>
       </c>
       <c r="Q5">
-        <v>37.78429986896267</v>
+        <v>0.0967628314441111</v>
       </c>
       <c r="R5">
-        <v>340.058698820664</v>
+        <v>0.870865482997</v>
       </c>
       <c r="S5">
-        <v>0.542687803866753</v>
+        <v>0.001030635110939058</v>
       </c>
       <c r="T5">
-        <v>0.5426878038667531</v>
+        <v>0.001030635110939058</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>17.245094</v>
       </c>
       <c r="I6">
-        <v>0.567448196572592</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="J6">
-        <v>0.5674481965725922</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.034619</v>
+        <v>0.3922183333333333</v>
       </c>
       <c r="N6">
-        <v>0.103857</v>
+        <v>1.176655</v>
       </c>
       <c r="O6">
-        <v>0.005036992360195417</v>
+        <v>0.06257714082953221</v>
       </c>
       <c r="P6">
-        <v>0.005036992360195417</v>
+        <v>0.06257714082953222</v>
       </c>
       <c r="Q6">
-        <v>0.1990026363953333</v>
+        <v>2.254614008952223</v>
       </c>
       <c r="R6">
-        <v>1.791023727558</v>
+        <v>20.29152608057</v>
       </c>
       <c r="S6">
-        <v>0.002858232230942814</v>
+        <v>0.02401422451743112</v>
       </c>
       <c r="T6">
-        <v>0.002858232230942814</v>
+        <v>0.02401422451743113</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>17.245094</v>
       </c>
       <c r="I7">
-        <v>0.567448196572592</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="J7">
-        <v>0.5674481965725922</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2652796666666666</v>
+        <v>5.787580333333334</v>
       </c>
       <c r="N7">
-        <v>0.795839</v>
+        <v>17.362741</v>
       </c>
       <c r="O7">
-        <v>0.03859763870461847</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="P7">
-        <v>0.03859763870461847</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="Q7">
-        <v>1.524924262651778</v>
+        <v>33.26912229362823</v>
       </c>
       <c r="R7">
-        <v>13.724318363866</v>
+        <v>299.422100642654</v>
       </c>
       <c r="S7">
-        <v>0.02190216047489623</v>
+        <v>0.3543543014834481</v>
       </c>
       <c r="T7">
-        <v>0.02190216047489623</v>
+        <v>0.3543543014834481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -903,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.322670666666666</v>
+        <v>5.748364666666667</v>
       </c>
       <c r="H8">
-        <v>12.968012</v>
+        <v>17.245094</v>
       </c>
       <c r="I8">
-        <v>0.4267112155220338</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="J8">
-        <v>0.4267112155220338</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.573052</v>
+        <v>0.034619</v>
       </c>
       <c r="N8">
-        <v>19.719156</v>
+        <v>0.103857</v>
       </c>
       <c r="O8">
-        <v>0.9563653689351861</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="P8">
-        <v>0.956365368935186</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="Q8">
-        <v>28.41313907087466</v>
+        <v>0.1990026363953334</v>
       </c>
       <c r="R8">
-        <v>255.7182516378719</v>
+        <v>1.791023727558</v>
       </c>
       <c r="S8">
-        <v>0.4080918290615115</v>
+        <v>0.002119606270067985</v>
       </c>
       <c r="T8">
-        <v>0.4080918290615115</v>
+        <v>0.002119606270067985</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -965,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.322670666666666</v>
+        <v>5.748364666666667</v>
       </c>
       <c r="H9">
-        <v>12.968012</v>
+        <v>17.245094</v>
       </c>
       <c r="I9">
-        <v>0.4267112155220338</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="J9">
-        <v>0.4267112155220338</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.034619</v>
+        <v>0.05333966666666667</v>
       </c>
       <c r="N9">
-        <v>0.103857</v>
+        <v>0.160019</v>
       </c>
       <c r="O9">
-        <v>0.005036992360195417</v>
+        <v>0.008510167804837369</v>
       </c>
       <c r="P9">
-        <v>0.005036992360195417</v>
+        <v>0.008510167804837371</v>
       </c>
       <c r="Q9">
-        <v>0.1496465358093333</v>
+        <v>0.3066158551984445</v>
       </c>
       <c r="R9">
-        <v>1.346818822284</v>
+        <v>2.759542696786</v>
       </c>
       <c r="S9">
-        <v>0.002149341132594184</v>
+        <v>0.003265810448308817</v>
       </c>
       <c r="T9">
-        <v>0.002149341132594184</v>
+        <v>0.003265810448308818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.322670666666666</v>
+        <v>7.416845666666667</v>
       </c>
       <c r="H10">
-        <v>12.968012</v>
+        <v>22.250537</v>
       </c>
       <c r="I10">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="J10">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,214 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2652796666666666</v>
+        <v>0.3922183333333333</v>
       </c>
       <c r="N10">
-        <v>0.795839</v>
+        <v>1.176655</v>
       </c>
       <c r="O10">
-        <v>0.03859763870461847</v>
+        <v>0.06257714082953221</v>
       </c>
       <c r="P10">
-        <v>0.03859763870461847</v>
+        <v>0.06257714082953222</v>
       </c>
       <c r="Q10">
-        <v>1.146716633563111</v>
+        <v>2.909022845970556</v>
       </c>
       <c r="R10">
-        <v>10.320449702068</v>
+        <v>26.181205613735</v>
       </c>
       <c r="S10">
-        <v>0.01647004532792804</v>
+        <v>0.0309844290295784</v>
       </c>
       <c r="T10">
-        <v>0.01647004532792804</v>
+        <v>0.03098442902957841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.416845666666667</v>
+      </c>
+      <c r="H11">
+        <v>22.250537</v>
+      </c>
+      <c r="I11">
+        <v>0.4951397366329628</v>
+      </c>
+      <c r="J11">
+        <v>0.4951397366329628</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.787580333333334</v>
+      </c>
+      <c r="N11">
+        <v>17.362741</v>
+      </c>
+      <c r="O11">
+        <v>0.9233893441524432</v>
+      </c>
+      <c r="P11">
+        <v>0.9233893441524432</v>
+      </c>
+      <c r="Q11">
+        <v>42.92559011576856</v>
+      </c>
+      <c r="R11">
+        <v>386.330311041917</v>
+      </c>
+      <c r="S11">
+        <v>0.4572067566733251</v>
+      </c>
+      <c r="T11">
+        <v>0.4572067566733251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.416845666666667</v>
+      </c>
+      <c r="H12">
+        <v>22.250537</v>
+      </c>
+      <c r="I12">
+        <v>0.4951397366329628</v>
+      </c>
+      <c r="J12">
+        <v>0.4951397366329628</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.034619</v>
+      </c>
+      <c r="N12">
+        <v>0.103857</v>
+      </c>
+      <c r="O12">
+        <v>0.005523347213187152</v>
+      </c>
+      <c r="P12">
+        <v>0.005523347213187152</v>
+      </c>
+      <c r="Q12">
+        <v>0.2567637801343334</v>
+      </c>
+      <c r="R12">
+        <v>2.310874021209</v>
+      </c>
+      <c r="S12">
+        <v>0.002734828684469896</v>
+      </c>
+      <c r="T12">
+        <v>0.002734828684469896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.416845666666667</v>
+      </c>
+      <c r="H13">
+        <v>22.250537</v>
+      </c>
+      <c r="I13">
+        <v>0.4951397366329628</v>
+      </c>
+      <c r="J13">
+        <v>0.4951397366329628</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05333966666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.160019</v>
+      </c>
+      <c r="O13">
+        <v>0.008510167804837369</v>
+      </c>
+      <c r="P13">
+        <v>0.008510167804837371</v>
+      </c>
+      <c r="Q13">
+        <v>0.3956120755781111</v>
+      </c>
+      <c r="R13">
+        <v>3.560508680203</v>
+      </c>
+      <c r="S13">
+        <v>0.004213722245589495</v>
+      </c>
+      <c r="T13">
+        <v>0.004213722245589495</v>
       </c>
     </row>
   </sheetData>
